--- a/backend/app/vol/AT04 Inv.xlsx
+++ b/backend/app/vol/AT04 Inv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jp65516\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Projects\AT-LRR\backend\app\vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4706,6 +4706,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4716,15 +4725,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5038,10 +5038,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -14451,14 +14451,14 @@
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="111" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="110"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
@@ -22355,13 +22355,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A154" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="56" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.28515625" style="26" customWidth="1"/>
     <col min="3" max="7" width="79.42578125" style="65" customWidth="1"/>
     <col min="8" max="8" width="62.28515625" style="65" customWidth="1"/>
@@ -22373,46 +22373,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111" t="s">
+      <c r="C1" s="114"/>
+      <c r="D1" s="114" t="s">
         <v>649</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111" t="s">
+      <c r="E1" s="114"/>
+      <c r="F1" s="114" t="s">
         <v>738</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="114" t="s">
         <v>826</v>
       </c>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114" t="s">
         <v>902</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111" t="s">
+      <c r="K1" s="114"/>
+      <c r="L1" s="114" t="s">
         <v>977</v>
       </c>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111" t="s">
+      <c r="M1" s="114"/>
+      <c r="N1" s="114" t="s">
         <v>1069</v>
       </c>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111" t="s">
+      <c r="O1" s="114"/>
+      <c r="P1" s="114" t="s">
         <v>1151</v>
       </c>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111" t="s">
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114" t="s">
         <v>1198</v>
       </c>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111" t="s">
+      <c r="S1" s="114"/>
+      <c r="T1" s="114" t="s">
         <v>1212</v>
       </c>
-      <c r="U1" s="111"/>
+      <c r="U1" s="114"/>
       <c r="V1" s="107"/>
       <c r="W1" s="107"/>
       <c r="X1" s="107"/>
@@ -33869,16 +33869,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="23" orientation="portrait" r:id="rId1"/>
@@ -41224,11 +41224,11 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="RightsWATCHMark">13|CITI-PII-Internal|{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="RightsWATCHMark">13|CITI-PII-Internal|{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41238,13 +41238,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAB1D30-0A66-47CD-8C26-1B7051C38452}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A43897C-EAAA-4C57-BE5F-74BC431F4181}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A43897C-EAAA-4C57-BE5F-74BC431F4181}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAB1D30-0A66-47CD-8C26-1B7051C38452}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/backend/app/vol/AT04 Inv.xlsx
+++ b/backend/app/vol/AT04 Inv.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="16020" windowHeight="9120" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="16020" windowHeight="9120" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="01_Query Calidad data insumos " sheetId="6" r:id="rId1"/>
@@ -4670,7 +4670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4737,8 +4737,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4803,6 +4810,11 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -4943,10 +4955,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5284,8 +5297,12 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22906,8 +22923,8 @@
   <dimension ref="A1:AU1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P9" sqref="P9"/>
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD1" sqref="AD1:AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22974,10 +22991,10 @@
         <v>1182</v>
       </c>
       <c r="AA1" s="114"/>
-      <c r="AB1" s="114" t="s">
+      <c r="AB1" s="115" t="s">
         <v>1213</v>
       </c>
-      <c r="AC1" s="114"/>
+      <c r="AC1" s="115"/>
       <c r="AD1" s="114" t="s">
         <v>1256</v>
       </c>
@@ -38598,6 +38615,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -38608,14 +38633,6 @@
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="23" orientation="portrait" r:id="rId1"/>
@@ -45957,7 +45974,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="RightsWATCHMark">13|CITI-PII-Internal|{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45965,11 +45982,11 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="RightsWATCHMark">13|CITI-PII-Internal|{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A43897C-EAAA-4C57-BE5F-74BC431F4181}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAB1D30-0A66-47CD-8C26-1B7051C38452}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -45981,7 +45998,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAB1D30-0A66-47CD-8C26-1B7051C38452}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A43897C-EAAA-4C57-BE5F-74BC431F4181}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/backend/app/vol/AT04 Inv.xlsx
+++ b/backend/app/vol/AT04 Inv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Projects\AT-LRR\backend\app\vol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\projects\at-lrr\backend\app\vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699327C5-F90B-47CE-8AF7-D35CB3C0543A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="16020" windowHeight="9120" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Query Calidad data insumos " sheetId="6" r:id="rId1"/>
@@ -27,10 +28,16 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'08_QUERY PROVISIONES'!$A$1:$W$170</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'sp Transformada (Provisiones)'!$A$1:$AK$170</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4669,7 +4676,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5580,7 +5587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H198"/>
   <sheetViews>
@@ -7536,7 +7543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E197"/>
   <sheetViews>
@@ -9781,7 +9788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I197"/>
   <sheetViews>
@@ -11879,7 +11886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:N198"/>
   <sheetViews>
@@ -14990,7 +14997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:K197"/>
   <sheetViews>
@@ -17539,7 +17546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Y198"/>
   <sheetViews>
@@ -22919,12 +22926,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AU1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD1" sqref="AD1:AE1"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38615,14 +38622,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -38633,6 +38632,14 @@
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="23" orientation="portrait" r:id="rId1"/>
@@ -38640,7 +38647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AG198"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -45974,11 +45981,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">13:48 13/11/2019</XMLData>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">13:48 13/11/2019</XMLData>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45986,13 +45993,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAB1D30-0A66-47CD-8C26-1B7051C38452}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179BE826-056D-4411-B55A-E510CB3FAAF8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179BE826-056D-4411-B55A-E510CB3FAAF8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAB1D30-0A66-47CD-8C26-1B7051C38452}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/backend/app/vol/AT04 Inv.xlsx
+++ b/backend/app/vol/AT04 Inv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\projects\at-lrr\backend\app\vol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699327C5-F90B-47CE-8AF7-D35CB3C0543A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1229E5E3-E158-4C39-84F0-5ADDDB979C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4677,7 +4677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4744,15 +4744,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4817,11 +4810,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -4962,11 +4950,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5304,12 +5291,8 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -22930,8 +22913,8 @@
   <dimension ref="A1:AU1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB3" sqref="AB3"/>
+      <pane xSplit="1" topLeftCell="AG1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="64.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22998,10 +22981,10 @@
         <v>1182</v>
       </c>
       <c r="AA1" s="114"/>
-      <c r="AB1" s="115" t="s">
+      <c r="AB1" s="114" t="s">
         <v>1213</v>
       </c>
-      <c r="AC1" s="115"/>
+      <c r="AC1" s="114"/>
       <c r="AD1" s="114" t="s">
         <v>1256</v>
       </c>
@@ -38622,6 +38605,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="AH1:AI1"/>
     <mergeCell ref="AJ1:AK1"/>
@@ -38632,14 +38623,6 @@
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="V1:W1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="23" orientation="portrait" r:id="rId1"/>
@@ -45981,11 +45964,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">13:48 13/11/2019</XMLData>
+<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<XMLData TextToDisplay="%DOCUMENTGUID%">{00000000-0000-0000-0000-000000000000}</XMLData>
+<XMLData TextToDisplay="%CLASSIFICATIONDATETIME%">13:48 13/11/2019</XMLData>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45993,13 +45976,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179BE826-056D-4411-B55A-E510CB3FAAF8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAB1D30-0A66-47CD-8C26-1B7051C38452}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFAB1D30-0A66-47CD-8C26-1B7051C38452}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179BE826-056D-4411-B55A-E510CB3FAAF8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
